--- a/public/IndustriData/template_industri.xlsx
+++ b/public/IndustriData/template_industri.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fani Salamah\Downloads\testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fani Salamah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1281AB48-922A-4A58-866C-B8456EB91945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27498336-EE3E-4594-AFA6-A315B7D43A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{96036A82-6580-4EC2-B9D0-D8D4F9CDF66A}"/>
   </bookViews>
@@ -40,13 +40,13 @@
     <t>Name</t>
   </si>
   <si>
+    <t>TVRI Yogyakarta</t>
+  </si>
+  <si>
     <t>Address</t>
   </si>
   <si>
-    <t>Jogja TV</t>
-  </si>
-  <si>
-    <t>Jalan Wonosari</t>
+    <t>Jalan Magelang km 6 Tegalrejo, Yogyakarta</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,12 +422,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
